--- a/outputs1.xlsx
+++ b/outputs1.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_sa_instance_state</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -450,15 +446,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>idlog</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>idlog</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -468,22 +459,95 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>&lt;sqlalchemy.orm.state.InstanceState object at 0x0000021DD22B8F50&gt;</t>
-        </is>
+      <c r="B2" t="b">
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" t="n">
+        <v>158</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>02-06-2024 15:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>157</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45445.65972222222</v>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>159</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>02-06-2024 15:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>160</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>02-06-2024 15:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>161</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02-06-2024 15:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>162</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>02-06-2024 15:50:00</t>
+        </is>
       </c>
     </row>
   </sheetData>
